--- a/finacial documents/12monthcashflow.xlsx
+++ b/finacial documents/12monthcashflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/interdisciplinary/interdisciplinary/finacial documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC4156-34B2-A244-84CF-D1151453F979}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B67701C-9D5B-3F49-9FDC-0B06FBAF21B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/finacial documents/12monthcashflow.xlsx
+++ b/finacial documents/12monthcashflow.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/interdisciplinary/interdisciplinary/finacial documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B67701C-9D5B-3F49-9FDC-0B06FBAF21B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C7A5B-8E00-914E-A581-17899A3A1E2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Twelve-month cash flow 19" sheetId="2" r:id="rId1"/>
-    <sheet name="Twelve-month cash flow 20" sheetId="1" r:id="rId2"/>
+    <sheet name="Twelve-month cash flow 20" sheetId="2" r:id="rId1"/>
+    <sheet name="Twelve-month cash flow 21" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Twelve-month cash flow 19'!$4:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Twelve-month cash flow 20'!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Twelve-month cash flow 20'!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Twelve-month cash flow 21'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,40 +68,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">2 employees 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{33DFD1F1-7E17-D24B-BF20-9258A974B511}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tijesu Olalekan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 more staff employeed = 4 people employeed
 </t>
         </r>
       </text>
@@ -262,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{BE5D1D08-6287-314D-9659-92BA81A59A51}">
       <text>
         <r>
           <rPr>
@@ -291,11 +257,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>tax only on employees</t>
+          <t xml:space="preserve">4 employees
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 Programmers and 2 tech support
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Total Item EST</t>
   </si>
@@ -370,9 +347,6 @@
     <t>Purchases (merchandise)</t>
   </si>
   <si>
-    <t>Purchases (specify)</t>
-  </si>
-  <si>
     <t>Outside services</t>
   </si>
   <si>
@@ -385,9 +359,6 @@
     <t>Advertising</t>
   </si>
   <si>
-    <t>Car, delivery &amp; travel</t>
-  </si>
-  <si>
     <t>Accounting &amp; legal</t>
   </si>
   <si>
@@ -401,9 +372,6 @@
   </si>
   <si>
     <t>Insurance</t>
-  </si>
-  <si>
-    <t>Other (specify)</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -508,12 +476,6 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>Interest on loan (10%)</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>owners withdraws</t>
   </si>
   <si>
@@ -532,10 +494,22 @@
     <t>Brain Traing Game LTD</t>
   </si>
   <si>
-    <t>Salaries</t>
-  </si>
-  <si>
     <t>Brain Training Game Ltd</t>
+  </si>
+  <si>
+    <t>Purchases )</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>Owner's Salaries</t>
+  </si>
+  <si>
+    <t>Interest on loan (25%)</t>
   </si>
 </sst>
 </file>
@@ -1281,9 +1255,9 @@
   </sheetPr>
   <dimension ref="B1:DI51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1309,10 +1283,10 @@
     <row r="1" spans="2:113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:113" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -1321,10 +1295,10 @@
       <c r="M2" s="23"/>
       <c r="N2" s="22"/>
       <c r="O2" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P2" s="25">
-        <v>43466</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="3" spans="2:113" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1337,55 +1311,55 @@
     <row r="4" spans="2:113" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="27">
         <f>P2</f>
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="E4" s="27">
         <f t="shared" ref="E4:O4" si="0">DATE(YEAR(D4),MONTH(D4)+1,1)</f>
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="F4" s="27">
         <f t="shared" si="0"/>
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" si="0"/>
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="0"/>
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="I4" s="27">
         <f t="shared" si="0"/>
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="K4" s="27">
         <f t="shared" si="0"/>
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="L4" s="27">
         <f t="shared" si="0"/>
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="M4" s="27">
         <f t="shared" si="0"/>
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="N4" s="27">
         <f t="shared" si="0"/>
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="O4" s="27">
         <f t="shared" si="0"/>
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>0</v>
@@ -1393,62 +1367,62 @@
     </row>
     <row r="5" spans="2:113" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="45">
         <v>13000</v>
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:O5" si="1">C38</f>
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="E5" s="45">
         <f t="shared" si="1"/>
-        <v>18937.75</v>
+        <v>8677.75</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="1"/>
-        <v>17174.5</v>
+        <v>4654.5</v>
       </c>
       <c r="G5" s="45">
         <f t="shared" si="1"/>
-        <v>15943.25</v>
+        <v>11123.25</v>
       </c>
       <c r="H5" s="45">
         <f t="shared" si="1"/>
-        <v>14744</v>
+        <v>10164</v>
       </c>
       <c r="I5" s="45">
         <f t="shared" si="1"/>
-        <v>11426.75</v>
+        <v>5736.75</v>
       </c>
       <c r="J5" s="45">
         <f t="shared" si="1"/>
-        <v>6142.5</v>
+        <v>1802.5</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="1"/>
-        <v>3390.25</v>
+        <v>440.25</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="1"/>
-        <v>2170</v>
+        <v>610</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="1"/>
-        <v>1482.75</v>
+        <v>1272.75</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="1"/>
-        <v>3327.5</v>
+        <v>4507.5</v>
       </c>
       <c r="O5" s="46">
         <f t="shared" si="1"/>
-        <v>6704.25</v>
+        <v>9274.25</v>
       </c>
       <c r="P5" s="45">
         <f>O5</f>
-        <v>6704.25</v>
+        <v>9274.25</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1586,53 +1560,31 @@
     </row>
     <row r="8" spans="2:113" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35">
         <v>5000</v>
       </c>
-      <c r="E8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="H8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="J8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="L8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="N8" s="35">
-        <v>5000</v>
-      </c>
-      <c r="O8" s="35">
-        <v>5000</v>
-      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="35">
         <f>SUM(D8:O8)</f>
-        <v>60000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="2:113" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36">
@@ -1683,7 +1635,7 @@
         <f t="shared" si="2"/>
         <v>23880</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="36">
         <f>SUM(C9:O9)</f>
         <v>154225</v>
       </c>
@@ -1692,14 +1644,13 @@
       <c r="B10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="35">
-        <v>10000</v>
-      </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="35">
+        <v>10000</v>
+      </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -1710,7 +1661,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="35">
-        <f>SUM(C10:O10)</f>
+        <f>SUM(D10:O10)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1737,7 +1688,7 @@
       </c>
       <c r="C12" s="40">
         <f>SUM(C9:C11)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="40">
         <f t="shared" ref="D12:O12" si="3">SUM(D8:D11)</f>
@@ -1745,113 +1696,113 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="3"/>
-        <v>8980</v>
+        <v>3980</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="3"/>
-        <v>10970</v>
+        <v>15970</v>
       </c>
       <c r="G12" s="40">
         <f t="shared" si="3"/>
-        <v>12960</v>
+        <v>7960</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="3"/>
-        <v>14950</v>
+        <v>9950</v>
       </c>
       <c r="I12" s="40">
         <f t="shared" si="3"/>
-        <v>16940</v>
+        <v>11940</v>
       </c>
       <c r="J12" s="40">
         <f t="shared" si="3"/>
-        <v>18930</v>
+        <v>13930</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" si="3"/>
-        <v>20920</v>
+        <v>15920</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="3"/>
-        <v>22910</v>
+        <v>17910</v>
       </c>
       <c r="M12" s="40">
         <f t="shared" si="3"/>
-        <v>24900</v>
+        <v>19900</v>
       </c>
       <c r="N12" s="40">
         <f t="shared" si="3"/>
-        <v>26890</v>
+        <v>21890</v>
       </c>
       <c r="O12" s="40">
         <f t="shared" si="3"/>
-        <v>28880</v>
+        <v>23880</v>
       </c>
       <c r="P12" s="40">
         <f>SUM(C12:O12)</f>
-        <v>224225</v>
+        <v>169225</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:113" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="40">
         <f t="shared" ref="C13:O13" si="4">(C5+C12)</f>
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="D13" s="40">
         <f t="shared" si="4"/>
-        <v>28995</v>
+        <v>16995</v>
       </c>
       <c r="E13" s="40">
         <f t="shared" si="4"/>
-        <v>27917.75</v>
+        <v>12657.75</v>
       </c>
       <c r="F13" s="40">
         <f t="shared" si="4"/>
-        <v>28144.5</v>
+        <v>20624.5</v>
       </c>
       <c r="G13" s="40">
         <f t="shared" si="4"/>
-        <v>28903.25</v>
+        <v>19083.25</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="4"/>
-        <v>29694</v>
+        <v>20114</v>
       </c>
       <c r="I13" s="40">
         <f t="shared" si="4"/>
-        <v>28366.75</v>
+        <v>17676.75</v>
       </c>
       <c r="J13" s="40">
         <f t="shared" si="4"/>
-        <v>25072.5</v>
+        <v>15732.5</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" si="4"/>
-        <v>24310.25</v>
+        <v>16360.25</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
-        <v>25080</v>
+        <v>18520</v>
       </c>
       <c r="M13" s="40">
         <f t="shared" si="4"/>
-        <v>26382.75</v>
+        <v>21172.75</v>
       </c>
       <c r="N13" s="40">
         <f t="shared" si="4"/>
-        <v>30217.5</v>
+        <v>26397.5</v>
       </c>
       <c r="O13" s="40">
         <f t="shared" si="4"/>
-        <v>35584.25</v>
+        <v>33154.25</v>
       </c>
       <c r="P13" s="40">
         <f>SUM(P5+P12)</f>
-        <v>230929.25</v>
+        <v>178499.25</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
@@ -1896,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -1914,10 +1865,11 @@
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2000</v>
+      </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -1933,7 +1885,7 @@
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -1952,7 +1904,7 @@
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35">
@@ -1972,45 +1924,45 @@
         <v>3640</v>
       </c>
       <c r="H19" s="35">
-        <f t="shared" ref="H19:O19" si="5">(3640*2)</f>
-        <v>7280</v>
+        <f>(3640*1)</f>
+        <v>3640</v>
       </c>
       <c r="I19" s="35">
-        <f t="shared" si="5"/>
-        <v>7280</v>
+        <f t="shared" ref="I19:O19" si="5">(3640*1)</f>
+        <v>3640</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="K19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="L19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="M19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="N19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="O19" s="35">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>3640</v>
       </c>
       <c r="P19" s="30">
         <f>SUM(D19:O19)</f>
-        <v>72800</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36">
@@ -2026,45 +1978,37 @@
         <v>18.25</v>
       </c>
       <c r="H20" s="36">
-        <f t="shared" ref="H20:O20" si="6">18.25+10</f>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="I20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="J20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="L20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="M20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="N20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="O20" s="36">
-        <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>18.25</v>
       </c>
       <c r="P20" s="10">
         <f>SUM(D20:O20)</f>
-        <v>299</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -2073,7 +2017,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
@@ -2085,46 +2029,84 @@
     </row>
     <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="10"/>
+      <c r="D22" s="36">
+        <v>60</v>
+      </c>
+      <c r="E22" s="36">
+        <v>60</v>
+      </c>
+      <c r="F22" s="36">
+        <v>60</v>
+      </c>
+      <c r="G22" s="36">
+        <v>60</v>
+      </c>
+      <c r="H22" s="36">
+        <v>60</v>
+      </c>
+      <c r="I22" s="36">
+        <v>60</v>
+      </c>
+      <c r="J22" s="36">
+        <v>60</v>
+      </c>
+      <c r="K22" s="36">
+        <v>60</v>
+      </c>
+      <c r="L22" s="36">
+        <v>60</v>
+      </c>
+      <c r="M22" s="36">
+        <v>60</v>
+      </c>
+      <c r="N22" s="36">
+        <v>60</v>
+      </c>
+      <c r="O22" s="36">
+        <v>60</v>
+      </c>
+      <c r="P22" s="10">
+        <f>SUM(D22:O22)</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="35">
+        <v>40</v>
+      </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="35">
+        <v>40</v>
+      </c>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="L23" s="35">
+        <v>40</v>
+      </c>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="35">
+        <v>40</v>
+      </c>
+      <c r="P23" s="30">
+        <f>SUM(D23:O23)</f>
+        <v>160</v>
+      </c>
       <c r="S23" s="43"/>
     </row>
     <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="36">
@@ -2170,10 +2152,12 @@
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="35">
+        <v>1000</v>
+      </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -2185,12 +2169,15 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="30">
+        <f>SUM(D25:O25)</f>
+        <v>1000</v>
+      </c>
       <c r="S25" s="42"/>
     </row>
     <row r="26" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -2220,26 +2207,53 @@
     </row>
     <row r="27" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="30"/>
+      <c r="D27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="L27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="M27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="N27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="O27" s="35">
+        <v>2000</v>
+      </c>
+      <c r="P27" s="30">
+        <f>SUM(D27:O27)</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="28" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36">
@@ -2285,99 +2299,90 @@
     </row>
     <row r="29" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O29" s="35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P29" s="30">
         <f>SUM(D29:O29)</f>
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C30" s="36"/>
-      <c r="D30" s="2">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30">
         <v>5000</v>
       </c>
-      <c r="E30" s="30">
+      <c r="I30" s="30">
         <v>5000</v>
       </c>
-      <c r="F30" s="30">
+      <c r="J30" s="30">
         <v>5000</v>
       </c>
-      <c r="G30" s="30">
-        <v>7500</v>
-      </c>
-      <c r="H30" s="30">
-        <v>7500</v>
-      </c>
-      <c r="I30" s="30">
-        <v>10000</v>
-      </c>
-      <c r="J30" s="30">
-        <v>10000</v>
-      </c>
       <c r="K30" s="30">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L30" s="30">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M30" s="30">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N30" s="30">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O30" s="30">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P30" s="10">
         <f>SUM(D30:O30)</f>
-        <v>100000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="41">
@@ -2423,7 +2428,7 @@
     </row>
     <row r="32" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
@@ -2442,69 +2447,69 @@
     </row>
     <row r="33" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C33" s="40">
-        <f t="shared" ref="C33:O33" si="7">SUM(C16:C32)</f>
-        <v>0</v>
+        <f t="shared" ref="C33:O33" si="6">SUM(C16:C32)</f>
+        <v>2000</v>
       </c>
       <c r="D33" s="40">
-        <f t="shared" si="7"/>
-        <v>10057.25</v>
+        <f t="shared" si="6"/>
+        <v>8317.25</v>
       </c>
       <c r="E33" s="40">
-        <f t="shared" si="7"/>
-        <v>10743.25</v>
+        <f t="shared" si="6"/>
+        <v>8003.25</v>
       </c>
       <c r="F33" s="40">
-        <f t="shared" si="7"/>
-        <v>12201.25</v>
+        <f t="shared" si="6"/>
+        <v>9501.25</v>
       </c>
       <c r="G33" s="40">
-        <f t="shared" si="7"/>
-        <v>14159.25</v>
+        <f t="shared" si="6"/>
+        <v>8919.25</v>
       </c>
       <c r="H33" s="40">
-        <f t="shared" si="7"/>
-        <v>18267.25</v>
+        <f t="shared" si="6"/>
+        <v>14377.25</v>
       </c>
       <c r="I33" s="40">
-        <f t="shared" si="7"/>
-        <v>22224.25</v>
+        <f t="shared" si="6"/>
+        <v>15874.25</v>
       </c>
       <c r="J33" s="40">
-        <f t="shared" si="7"/>
-        <v>21682.25</v>
+        <f t="shared" si="6"/>
+        <v>15292.25</v>
       </c>
       <c r="K33" s="40">
-        <f t="shared" si="7"/>
-        <v>22140.25</v>
+        <f t="shared" si="6"/>
+        <v>15750.25</v>
       </c>
       <c r="L33" s="40">
-        <f t="shared" si="7"/>
-        <v>23597.25</v>
+        <f t="shared" si="6"/>
+        <v>17247.25</v>
       </c>
       <c r="M33" s="40">
-        <f t="shared" si="7"/>
-        <v>23055.25</v>
+        <f t="shared" si="6"/>
+        <v>16665.25</v>
       </c>
       <c r="N33" s="40">
-        <f t="shared" si="7"/>
-        <v>23513.25</v>
+        <f t="shared" si="6"/>
+        <v>17123.25</v>
       </c>
       <c r="O33" s="40">
-        <f t="shared" si="7"/>
-        <v>24970.25</v>
+        <f t="shared" si="6"/>
+        <v>18620.25</v>
       </c>
       <c r="P33" s="16">
         <f>SUM(C33:O33)</f>
-        <v>226611</v>
+        <v>167691</v>
       </c>
       <c r="S33" s="39"/>
     </row>
     <row r="34" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="30"/>
@@ -2523,7 +2528,7 @@
     </row>
     <row r="35" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="38"/>
@@ -2542,7 +2547,7 @@
     </row>
     <row r="36" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C36" s="30"/>
       <c r="E36" s="30"/>
@@ -2560,124 +2565,124 @@
     </row>
     <row r="37" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" ref="C37:P37" si="8">SUM(C33:C36)</f>
-        <v>0</v>
+        <f t="shared" ref="C37:P37" si="7">SUM(C33:C36)</f>
+        <v>2000</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" si="8"/>
-        <v>10057.25</v>
+        <f t="shared" si="7"/>
+        <v>8317.25</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="8"/>
-        <v>10743.25</v>
+        <f t="shared" si="7"/>
+        <v>8003.25</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="8"/>
-        <v>12201.25</v>
+        <f t="shared" si="7"/>
+        <v>9501.25</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="8"/>
-        <v>14159.25</v>
+        <f t="shared" si="7"/>
+        <v>8919.25</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="8"/>
-        <v>18267.25</v>
+        <f t="shared" si="7"/>
+        <v>14377.25</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="8"/>
-        <v>22224.25</v>
+        <f t="shared" si="7"/>
+        <v>15874.25</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="8"/>
-        <v>21682.25</v>
+        <f t="shared" si="7"/>
+        <v>15292.25</v>
       </c>
       <c r="K37" s="16">
-        <f t="shared" si="8"/>
-        <v>22140.25</v>
+        <f t="shared" si="7"/>
+        <v>15750.25</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="8"/>
-        <v>23597.25</v>
+        <f t="shared" si="7"/>
+        <v>17247.25</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="8"/>
-        <v>23055.25</v>
+        <f t="shared" si="7"/>
+        <v>16665.25</v>
       </c>
       <c r="N37" s="16">
-        <f t="shared" si="8"/>
-        <v>23513.25</v>
+        <f t="shared" si="7"/>
+        <v>17123.25</v>
       </c>
       <c r="O37" s="16">
-        <f t="shared" si="8"/>
-        <v>24970.25</v>
+        <f t="shared" si="7"/>
+        <v>18620.25</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" si="8"/>
-        <v>226611</v>
+        <f t="shared" si="7"/>
+        <v>167691</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" ref="C38:P38" si="9">(C13-C37)</f>
-        <v>23000</v>
+        <f t="shared" ref="C38:P38" si="8">(C13-C37)</f>
+        <v>11000</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="9"/>
-        <v>18937.75</v>
+        <f t="shared" si="8"/>
+        <v>8677.75</v>
       </c>
       <c r="E38" s="16">
-        <f t="shared" si="9"/>
-        <v>17174.5</v>
+        <f t="shared" si="8"/>
+        <v>4654.5</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="9"/>
-        <v>15943.25</v>
+        <f t="shared" si="8"/>
+        <v>11123.25</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="9"/>
-        <v>14744</v>
+        <f t="shared" si="8"/>
+        <v>10164</v>
       </c>
       <c r="H38" s="16">
-        <f t="shared" si="9"/>
-        <v>11426.75</v>
+        <f t="shared" si="8"/>
+        <v>5736.75</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" si="9"/>
-        <v>6142.5</v>
+        <f t="shared" si="8"/>
+        <v>1802.5</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="9"/>
-        <v>3390.25</v>
+        <f t="shared" si="8"/>
+        <v>440.25</v>
       </c>
       <c r="K38" s="16">
-        <f t="shared" si="9"/>
-        <v>2170</v>
+        <f t="shared" si="8"/>
+        <v>610</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="9"/>
-        <v>1482.75</v>
+        <f t="shared" si="8"/>
+        <v>1272.75</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="9"/>
-        <v>3327.5</v>
+        <f t="shared" si="8"/>
+        <v>4507.5</v>
       </c>
       <c r="N38" s="16">
-        <f t="shared" si="9"/>
-        <v>6704.25</v>
+        <f t="shared" si="8"/>
+        <v>9274.25</v>
       </c>
       <c r="O38" s="16">
-        <f t="shared" si="9"/>
-        <v>10614</v>
+        <f>(O13-O37)</f>
+        <v>14534</v>
       </c>
       <c r="P38" s="37">
-        <f t="shared" si="9"/>
-        <v>4318.25</v>
+        <f t="shared" si="8"/>
+        <v>10808.25</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2699,7 +2704,7 @@
     </row>
     <row r="40" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -2718,7 +2723,7 @@
     </row>
     <row r="41" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -2737,7 +2742,7 @@
     </row>
     <row r="42" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -2756,7 +2761,7 @@
     </row>
     <row r="43" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -2775,7 +2780,7 @@
     </row>
     <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -2794,7 +2799,7 @@
     </row>
     <row r="45" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2813,7 +2818,7 @@
     </row>
     <row r="46" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -2851,9 +2856,9 @@
   </sheetPr>
   <dimension ref="B1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2879,10 +2884,10 @@
     <row r="1" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -2891,7 +2896,7 @@
       <c r="M2" s="23"/>
       <c r="N2" s="22"/>
       <c r="O2" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P2" s="25">
         <v>38353</v>
@@ -2907,7 +2912,7 @@
     <row r="4" spans="2:17" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="27">
         <f>P2</f>
@@ -2963,59 +2968,59 @@
     </row>
     <row r="5" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="16">
-        <v>10614</v>
+        <v>14534</v>
       </c>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:O5" si="1">D43</f>
-        <v>6595.5999999999985</v>
+        <f t="shared" ref="E5:O5" si="1">D35</f>
+        <v>9755.5999999999985</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>3609.5</v>
+        <v>7009.5</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>1921.8499999999985</v>
+        <v>3021.8499999999985</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>3532.6499999999978</v>
+        <v>2372.6499999999978</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="1"/>
-        <v>7441.8999999999942</v>
+        <v>4021.8999999999942</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>15149.599999999991</v>
+        <v>6929.5999999999913</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>26155.749999999993</v>
+        <v>13175.749999999993</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="1"/>
-        <v>39460.35</v>
+        <v>24220.349999999991</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="1"/>
-        <v>54063.400000000009</v>
+        <v>36523.399999999994</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="1"/>
-        <v>71964.900000000009</v>
+        <v>52164.899999999994</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="1"/>
-        <v>92164.85</v>
+        <v>70104.849999999991</v>
       </c>
       <c r="P5" s="10">
         <f>O5</f>
-        <v>92164.85</v>
+        <v>70104.849999999991</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -3213,7 +3218,7 @@
     </row>
     <row r="12" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16">
         <f>(C5+C11)</f>
@@ -3221,55 +3226,55 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ref="D12:N12" si="4">(D5+D11)</f>
-        <v>34494</v>
+        <v>38414</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="4"/>
-        <v>32465.599999999999</v>
+        <v>35625.599999999999</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="4"/>
-        <v>32464.5</v>
+        <v>35864.5</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="4"/>
-        <v>33761.85</v>
+        <v>34861.85</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="4"/>
-        <v>38357.649999999994</v>
+        <v>37197.649999999994</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="4"/>
-        <v>45251.899999999994</v>
+        <v>41831.899999999994</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="4"/>
-        <v>55944.599999999991</v>
+        <v>47724.599999999991</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="4"/>
-        <v>69935.75</v>
+        <v>56955.749999999993</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="4"/>
-        <v>86225.35</v>
+        <v>70985.349999999991</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="4"/>
-        <v>103813.40000000001</v>
+        <v>86273.4</v>
       </c>
       <c r="N12" s="16">
         <f t="shared" si="4"/>
-        <v>124699.90000000001</v>
+        <v>104899.9</v>
       </c>
       <c r="O12" s="16">
         <f>(O5+O11)</f>
-        <v>147884.85</v>
+        <v>125824.84999999999</v>
       </c>
       <c r="P12" s="16">
         <f>(P5+P11)</f>
-        <v>564789.85</v>
+        <v>542729.85</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="7" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -3309,526 +3314,679 @@
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="E15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="F15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="G15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="H15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="I15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="J15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="K15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="L15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="M15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="N15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="O15" s="35">
+        <v>7280</v>
+      </c>
+      <c r="P15" s="30">
+        <f>SUM(D15:O15)</f>
+        <v>87360</v>
+      </c>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <f>364*4</f>
+        <v>1456</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" ref="E16:O16" si="5">364*4</f>
+        <v>1456</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="5"/>
+        <v>1456</v>
+      </c>
+      <c r="P16" s="10">
+        <f>SUM(D16:O16)</f>
+        <v>17472</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="D17" s="36">
+        <v>60</v>
+      </c>
+      <c r="E17" s="36">
+        <v>60</v>
+      </c>
+      <c r="F17" s="36">
+        <v>60</v>
+      </c>
+      <c r="G17" s="36">
+        <v>60</v>
+      </c>
+      <c r="H17" s="36">
+        <v>60</v>
+      </c>
+      <c r="I17" s="36">
+        <v>60</v>
+      </c>
+      <c r="J17" s="36">
+        <v>60</v>
+      </c>
+      <c r="K17" s="36">
+        <v>60</v>
+      </c>
+      <c r="L17" s="36">
+        <v>60</v>
+      </c>
+      <c r="M17" s="36">
+        <v>60</v>
+      </c>
+      <c r="N17" s="36">
+        <v>60</v>
+      </c>
+      <c r="O17" s="36">
+        <v>60</v>
+      </c>
+      <c r="P17" s="10">
+        <f>SUM(D17:O17)</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="E18" s="35">
-        <v>7280</v>
-      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="G18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="H18" s="35">
-        <v>7280</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="J18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="K18" s="35">
-        <v>7280</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="M18" s="35">
-        <v>7280</v>
-      </c>
-      <c r="N18" s="35">
-        <v>7280</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="35">
-        <v>7280</v>
+        <v>40</v>
       </c>
       <c r="P18" s="30">
         <f>SUM(D18:O18)</f>
-        <v>87360</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10">
-        <f>364*4</f>
-        <v>1456</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" ref="E19:O19" si="5">364*4</f>
-        <v>1456</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="K19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="5"/>
-        <v>1456</v>
+      <c r="D19" s="36">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="K19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="M19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="N19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="O19" s="36">
+        <v>1500</v>
       </c>
       <c r="P19" s="10">
         <f>SUM(D19:O19)</f>
-        <v>17472</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
+      <c r="B20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="36">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="36">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="36">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="10">
+        <f>SUM(D20:O20)</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="B21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="K21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="L21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="M21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="O21" s="35">
+        <v>2000</v>
+      </c>
+      <c r="P21" s="30">
+        <f>SUM(D21:O21)</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
+      <c r="B22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="36">
+        <v>70</v>
+      </c>
+      <c r="E22" s="36">
+        <v>70</v>
+      </c>
+      <c r="F22" s="36">
+        <v>70</v>
+      </c>
+      <c r="G22" s="36">
+        <v>70</v>
+      </c>
+      <c r="H22" s="36">
+        <v>70</v>
+      </c>
+      <c r="I22" s="36">
+        <v>70</v>
+      </c>
+      <c r="J22" s="36">
+        <v>70</v>
+      </c>
+      <c r="K22" s="36">
+        <v>70</v>
+      </c>
+      <c r="L22" s="36">
+        <v>70</v>
+      </c>
+      <c r="M22" s="36">
+        <v>70</v>
+      </c>
+      <c r="N22" s="36">
+        <v>70</v>
+      </c>
+      <c r="O22" s="36">
+        <v>70</v>
+      </c>
+      <c r="P22" s="10">
+        <f>SUM(D22:O22)</f>
+        <v>840</v>
+      </c>
     </row>
     <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="36">
+      <c r="B23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="35">
+        <v>300</v>
+      </c>
+      <c r="E23" s="35">
+        <v>300</v>
+      </c>
+      <c r="F23" s="35">
+        <v>300</v>
+      </c>
+      <c r="G23" s="35">
+        <v>300</v>
+      </c>
+      <c r="H23" s="35">
+        <v>300</v>
+      </c>
+      <c r="I23" s="35">
+        <v>300</v>
+      </c>
+      <c r="J23" s="35">
+        <v>300</v>
+      </c>
+      <c r="K23" s="35">
+        <v>300</v>
+      </c>
+      <c r="L23" s="35">
+        <v>300</v>
+      </c>
+      <c r="M23" s="35">
+        <v>300</v>
+      </c>
+      <c r="N23" s="35">
+        <v>300</v>
+      </c>
+      <c r="O23" s="35">
+        <v>300</v>
+      </c>
+      <c r="P23" s="30">
+        <f>SUM(D23:O23)</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="35">
         <v>1000</v>
       </c>
-      <c r="E23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="G23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="H23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="J23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="K23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="L23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="M23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="N23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="O23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="P23" s="10">
-        <f>SUM(D23:O23)</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="30">
+        <f>SUM(D24:O24)</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="36">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="36">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="36">
-        <v>1000</v>
-      </c>
-      <c r="P25" s="10">
-        <f>SUM(F25:O25)</f>
-        <v>4000</v>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30">
+        <f>D$8*0.23</f>
+        <v>5492.4000000000005</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" ref="E25:N25" si="6">E$8*0.23</f>
+        <v>5950.1</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="6"/>
+        <v>6636.6500000000005</v>
+      </c>
+      <c r="G25" s="30">
+        <f t="shared" si="6"/>
+        <v>7323.2000000000007</v>
+      </c>
+      <c r="H25" s="30">
+        <f t="shared" si="6"/>
+        <v>8009.75</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="6"/>
+        <v>8696.3000000000011</v>
+      </c>
+      <c r="J25" s="30">
+        <f t="shared" si="6"/>
+        <v>9382.85</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="6"/>
+        <v>10069.4</v>
+      </c>
+      <c r="L25" s="30">
+        <f t="shared" si="6"/>
+        <v>10755.95</v>
+      </c>
+      <c r="M25" s="30">
+        <f t="shared" si="6"/>
+        <v>11442.5</v>
+      </c>
+      <c r="N25" s="30">
+        <f t="shared" si="6"/>
+        <v>12129.050000000001</v>
+      </c>
+      <c r="O25" s="30">
+        <f>O$8*0.23</f>
+        <v>12815.6</v>
+      </c>
+      <c r="P25" s="30">
+        <f>SUM(D25:O25)</f>
+        <v>108703.75000000001</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="B26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>500</v>
+      </c>
+      <c r="G26" s="10">
+        <v>500</v>
+      </c>
+      <c r="H26" s="10">
+        <v>500</v>
+      </c>
+      <c r="I26" s="10">
+        <v>500</v>
+      </c>
+      <c r="J26" s="10">
+        <v>500</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10">
+        <f>SUM(D26:O26)</f>
+        <v>2500</v>
+      </c>
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="36">
-        <v>70</v>
-      </c>
-      <c r="E27" s="36">
-        <v>70</v>
-      </c>
-      <c r="F27" s="36">
-        <v>70</v>
-      </c>
-      <c r="G27" s="36">
-        <v>70</v>
-      </c>
-      <c r="H27" s="36">
-        <v>70</v>
-      </c>
-      <c r="I27" s="36">
-        <v>70</v>
-      </c>
-      <c r="J27" s="36">
-        <v>70</v>
-      </c>
-      <c r="K27" s="36">
-        <v>70</v>
-      </c>
-      <c r="L27" s="36">
-        <v>70</v>
-      </c>
-      <c r="M27" s="36">
-        <v>70</v>
-      </c>
-      <c r="N27" s="36">
-        <v>70</v>
-      </c>
-      <c r="O27" s="36">
-        <v>70</v>
-      </c>
-      <c r="P27" s="10">
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="L27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="O27" s="30">
+        <v>10000</v>
+      </c>
+      <c r="P27" s="30">
         <f>SUM(D27:O27)</f>
-        <v>840</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="35">
-        <v>100</v>
-      </c>
-      <c r="E28" s="35">
-        <v>100</v>
-      </c>
-      <c r="F28" s="35">
-        <v>100</v>
-      </c>
-      <c r="G28" s="35">
-        <v>100</v>
-      </c>
-      <c r="H28" s="35">
-        <v>100</v>
-      </c>
-      <c r="I28" s="35">
-        <v>100</v>
-      </c>
-      <c r="J28" s="35">
-        <v>100</v>
-      </c>
-      <c r="K28" s="35">
-        <v>100</v>
-      </c>
-      <c r="L28" s="35">
-        <v>100</v>
-      </c>
-      <c r="M28" s="35">
-        <v>100</v>
-      </c>
-      <c r="N28" s="35">
-        <v>100</v>
-      </c>
-      <c r="O28" s="35">
-        <v>100</v>
-      </c>
-      <c r="P28" s="30">
-        <f>SUM(D28:O28)</f>
-        <v>1200</v>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="16">
+        <f>SUM(C15:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <f>SUM(D15:D27)</f>
+        <v>28658.400000000001</v>
+      </c>
+      <c r="E28" s="16">
+        <f>SUM(E15:E27)</f>
+        <v>28616.1</v>
+      </c>
+      <c r="F28" s="16">
+        <f>SUM(F15:F27)</f>
+        <v>30842.65</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(G15:G27)</f>
+        <v>30489.200000000001</v>
+      </c>
+      <c r="H28" s="16">
+        <f>SUM(H15:H27)</f>
+        <v>31175.75</v>
+      </c>
+      <c r="I28" s="16">
+        <f>SUM(I15:I27)</f>
+        <v>32902.300000000003</v>
+      </c>
+      <c r="J28" s="16">
+        <f>SUM(J15:J27)</f>
+        <v>32548.85</v>
+      </c>
+      <c r="K28" s="16">
+        <f>SUM(K15:K27)</f>
+        <v>32735.4</v>
+      </c>
+      <c r="L28" s="16">
+        <f>SUM(L15:L27)</f>
+        <v>34461.949999999997</v>
+      </c>
+      <c r="M28" s="16">
+        <f>SUM(M15:M27)</f>
+        <v>34108.5</v>
+      </c>
+      <c r="N28" s="16">
+        <f>SUM(N15:N27)</f>
+        <v>34795.050000000003</v>
+      </c>
+      <c r="O28" s="16">
+        <f>SUM(O15:O27)</f>
+        <v>36521.599999999999</v>
+      </c>
+      <c r="P28" s="16">
+        <f>SUM(P15:P27)</f>
+        <v>387855.75</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="F29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="47">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2000</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="P29" s="10">
+        <f>SUM(D29:O29)</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C30" s="30"/>
-      <c r="D30" s="30">
-        <f>D$8*0.23</f>
-        <v>5492.4000000000005</v>
-      </c>
-      <c r="E30" s="30">
-        <f t="shared" ref="E30:N30" si="6">E$8*0.23</f>
-        <v>5950.1</v>
-      </c>
-      <c r="F30" s="30">
-        <f t="shared" si="6"/>
-        <v>6636.6500000000005</v>
-      </c>
-      <c r="G30" s="30">
-        <f t="shared" si="6"/>
-        <v>7323.2000000000007</v>
-      </c>
-      <c r="H30" s="30">
-        <f t="shared" si="6"/>
-        <v>8009.75</v>
-      </c>
-      <c r="I30" s="30">
-        <f t="shared" si="6"/>
-        <v>8696.3000000000011</v>
-      </c>
-      <c r="J30" s="30">
-        <f t="shared" si="6"/>
-        <v>9382.85</v>
-      </c>
-      <c r="K30" s="30">
-        <f t="shared" si="6"/>
-        <v>10069.4</v>
-      </c>
-      <c r="L30" s="30">
-        <f t="shared" si="6"/>
-        <v>10755.95</v>
-      </c>
-      <c r="M30" s="30">
-        <f t="shared" si="6"/>
-        <v>11442.5</v>
-      </c>
-      <c r="N30" s="30">
-        <f t="shared" si="6"/>
-        <v>12129.050000000001</v>
-      </c>
-      <c r="O30" s="30">
-        <f>O$8*0.23</f>
-        <v>12815.6</v>
-      </c>
-      <c r="P30" s="30">
-        <f>SUM(D30:O30)</f>
-        <v>108703.75000000001</v>
-      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="10">
-        <v>500</v>
-      </c>
-      <c r="E31" s="10">
-        <v>500</v>
-      </c>
-      <c r="F31" s="10">
-        <v>500</v>
-      </c>
-      <c r="G31" s="10">
-        <v>500</v>
-      </c>
-      <c r="H31" s="10">
-        <v>500</v>
-      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -3836,60 +3994,30 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10">
-        <f>SUM(D31:O31)</f>
-        <v>2500</v>
-      </c>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C32" s="30"/>
-      <c r="D32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="E32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="G32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="J32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="K32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="L32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="M32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="N32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="O32" s="30">
-        <v>10000</v>
-      </c>
-      <c r="P32" s="30">
-        <f>SUM(D32:O32)</f>
-        <v>120000</v>
-      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
     </row>
     <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3907,487 +4035,289 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
+      <c r="B34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16">
+        <f>SUM(C28:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" ref="D34:O34" si="7">SUM(D28:D33)</f>
+        <v>28658.400000000001</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="7"/>
+        <v>28616.1</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="7"/>
+        <v>32842.65</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="7"/>
+        <v>32489.200000000001</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="7"/>
+        <v>33175.75</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="7"/>
+        <v>34902.300000000003</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="7"/>
+        <v>34548.85</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="7"/>
+        <v>32735.4</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="7"/>
+        <v>34461.949999999997</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="7"/>
+        <v>34108.5</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="7"/>
+        <v>34795.050000000003</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="7"/>
+        <v>36521.599999999999</v>
+      </c>
+      <c r="P34" s="16">
+        <f>SUM(P28:P33)</f>
+        <v>397855.75</v>
+      </c>
     </row>
     <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="16">
+        <f>(C12-C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <f>(D12-D34)</f>
+        <v>9755.5999999999985</v>
+      </c>
+      <c r="E35" s="16">
+        <f>(E12-E34)</f>
+        <v>7009.5</v>
+      </c>
+      <c r="F35" s="16">
+        <f>(F12-F34)</f>
+        <v>3021.8499999999985</v>
+      </c>
+      <c r="G35" s="16">
+        <f>(G12-G34)</f>
+        <v>2372.6499999999978</v>
+      </c>
+      <c r="H35" s="16">
+        <f>(H12-H34)</f>
+        <v>4021.8999999999942</v>
+      </c>
+      <c r="I35" s="16">
+        <f>(I12-I34)</f>
+        <v>6929.5999999999913</v>
+      </c>
+      <c r="J35" s="16">
+        <f>(J12-J34)</f>
+        <v>13175.749999999993</v>
+      </c>
+      <c r="K35" s="16">
+        <f>(K12-K34)</f>
+        <v>24220.349999999991</v>
+      </c>
+      <c r="L35" s="16">
+        <f>(L12-L34)</f>
+        <v>36523.399999999994</v>
+      </c>
+      <c r="M35" s="16">
+        <f>(M12-M34)</f>
+        <v>52164.899999999994</v>
+      </c>
+      <c r="N35" s="16">
+        <f>(N12-N34)</f>
+        <v>70104.849999999991</v>
+      </c>
+      <c r="O35" s="16">
+        <f>(O12-O34)</f>
+        <v>89303.25</v>
+      </c>
+      <c r="P35" s="16">
+        <f>(P12-P34)</f>
+        <v>144874.09999999998</v>
+      </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="16">
-        <f>SUM(C15:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" ref="D36:P36" si="7">SUM(D15:D35)</f>
-        <v>25898.400000000001</v>
-      </c>
-      <c r="E36" s="16">
-        <f t="shared" si="7"/>
-        <v>26856.1</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="7"/>
-        <v>28542.65</v>
-      </c>
-      <c r="G36" s="16">
-        <f t="shared" si="7"/>
-        <v>28229.200000000001</v>
-      </c>
-      <c r="H36" s="16">
-        <f>SUM(H15:H35)</f>
-        <v>28915.75</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="7"/>
-        <v>30102.300000000003</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="7"/>
-        <v>29788.85</v>
-      </c>
-      <c r="K36" s="16">
-        <f t="shared" si="7"/>
-        <v>30475.4</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="7"/>
-        <v>32161.95</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="7"/>
-        <v>31848.5</v>
-      </c>
-      <c r="N36" s="16">
-        <f t="shared" si="7"/>
-        <v>32535.050000000003</v>
-      </c>
-      <c r="O36" s="16">
-        <f t="shared" si="7"/>
-        <v>34221.599999999999</v>
-      </c>
-      <c r="P36" s="16">
-        <f t="shared" si="7"/>
-        <v>359575.75</v>
-      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
     </row>
     <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E37" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G37" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H37" s="10">
-        <v>2000</v>
-      </c>
-      <c r="I37" s="47"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10">
-        <f>SUM(D37:O37)</f>
-        <v>10000</v>
-      </c>
+      <c r="B37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
+      <c r="B38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="B41" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
     </row>
     <row r="42" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="16">
-        <f>SUM(C36:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="16">
-        <f t="shared" ref="D42:O42" si="8">SUM(D36:D41)</f>
-        <v>27898.400000000001</v>
-      </c>
-      <c r="E42" s="16">
-        <f t="shared" si="8"/>
-        <v>28856.1</v>
-      </c>
-      <c r="F42" s="16">
-        <f t="shared" si="8"/>
-        <v>30542.65</v>
-      </c>
-      <c r="G42" s="16">
-        <f t="shared" si="8"/>
-        <v>30229.200000000001</v>
-      </c>
-      <c r="H42" s="16">
-        <f t="shared" si="8"/>
-        <v>30915.75</v>
-      </c>
-      <c r="I42" s="16">
-        <f t="shared" si="8"/>
-        <v>30102.300000000003</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="8"/>
-        <v>29788.85</v>
-      </c>
-      <c r="K42" s="16">
-        <f t="shared" si="8"/>
-        <v>30475.4</v>
-      </c>
-      <c r="L42" s="16">
-        <f t="shared" si="8"/>
-        <v>32161.95</v>
-      </c>
-      <c r="M42" s="16">
-        <f t="shared" si="8"/>
-        <v>31848.5</v>
-      </c>
-      <c r="N42" s="16">
-        <f t="shared" si="8"/>
-        <v>32535.050000000003</v>
-      </c>
-      <c r="O42" s="16">
-        <f t="shared" si="8"/>
-        <v>34221.599999999999</v>
-      </c>
-      <c r="P42" s="16">
-        <f>SUM(P36:P41)</f>
-        <v>369575.75</v>
-      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
     </row>
     <row r="43" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="16">
-        <f>(C12-C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="16">
-        <f t="shared" ref="D43:P43" si="9">(D12-D42)</f>
-        <v>6595.5999999999985</v>
-      </c>
-      <c r="E43" s="16">
-        <f t="shared" si="9"/>
-        <v>3609.5</v>
-      </c>
-      <c r="F43" s="16">
-        <f t="shared" si="9"/>
-        <v>1921.8499999999985</v>
-      </c>
-      <c r="G43" s="16">
-        <f t="shared" si="9"/>
-        <v>3532.6499999999978</v>
-      </c>
-      <c r="H43" s="16">
-        <f t="shared" si="9"/>
-        <v>7441.8999999999942</v>
-      </c>
-      <c r="I43" s="16">
-        <f t="shared" si="9"/>
-        <v>15149.599999999991</v>
-      </c>
-      <c r="J43" s="16">
-        <f t="shared" si="9"/>
-        <v>26155.749999999993</v>
-      </c>
-      <c r="K43" s="16">
-        <f t="shared" si="9"/>
-        <v>39460.35</v>
-      </c>
-      <c r="L43" s="16">
-        <f t="shared" si="9"/>
-        <v>54063.400000000009</v>
-      </c>
-      <c r="M43" s="16">
-        <f t="shared" si="9"/>
-        <v>71964.900000000009</v>
-      </c>
-      <c r="N43" s="16">
-        <f t="shared" si="9"/>
-        <v>92164.85</v>
-      </c>
-      <c r="O43" s="16">
-        <f t="shared" si="9"/>
-        <v>113663.25</v>
-      </c>
-      <c r="P43" s="16">
-        <f t="shared" si="9"/>
-        <v>195214.09999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="20"/>
-    </row>
-    <row r="46" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-    </row>
-    <row r="47" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-    </row>
-    <row r="48" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-    </row>
+      <c r="B43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+    </row>
+    <row r="44" spans="2:16" ht="8" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="F8" formula="1"/>
